--- a/testdata/Excel data.xlsx
+++ b/testdata/Excel data.xlsx
@@ -3,15 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Self Booking Tools\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="8400" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Division" sheetId="4" r:id="rId4"/>
+    <sheet name="username" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>username</t>
   </si>
@@ -81,6 +88,87 @@
   </si>
   <si>
     <t>Password@12</t>
+  </si>
+  <si>
+    <t>Travellername</t>
+  </si>
+  <si>
+    <t>Kanchan</t>
+  </si>
+  <si>
+    <t>Dnata@2018</t>
+  </si>
+  <si>
+    <t>Ashish.k@dnata.com</t>
+  </si>
+  <si>
+    <t>TripType</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Bombay</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>dubai</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>russia</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>Sapna.chopra@quadlabs.com</t>
+  </si>
+  <si>
+    <t>anurag.upadhyay@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Sanjip.Yadav@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Selvaraj.Ramasamy@bmw.in</t>
+  </si>
+  <si>
+    <t>Vinodh-Kumar.Sankaran@bmw.in</t>
+  </si>
+  <si>
+    <t>Niraj.Kumar@bmw.in</t>
+  </si>
+  <si>
+    <t>ashish.k@india.hrgworldwide.com</t>
+  </si>
+  <si>
+    <t>Approver 1</t>
+  </si>
+  <si>
+    <t>Approver 2</t>
+  </si>
+  <si>
+    <t>Approver 3</t>
+  </si>
+  <si>
+    <t>Test Test</t>
+  </si>
+  <si>
+    <t>No of Approver</t>
+  </si>
+  <si>
+    <t>sanjip yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saurabh Yadav </t>
   </si>
 </sst>
 </file>
@@ -442,118 +530,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="abhishek05882@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="Sapna.chopra@quadlabs.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>43490</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>43491</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -561,39 +721,342 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43490</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43491</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/Excel data.xlsx
+++ b/testdata/Excel data.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="8400" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="5145" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Division" sheetId="4" r:id="rId4"/>
-    <sheet name="username" sheetId="5" r:id="rId5"/>
+    <sheet name="Branch" sheetId="6" r:id="rId3"/>
+    <sheet name="Department" sheetId="7" r:id="rId4"/>
+    <sheet name="Designation" sheetId="8" r:id="rId5"/>
+    <sheet name="EmployeeGrade" sheetId="9" r:id="rId6"/>
+    <sheet name="Passportvisaalert" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Division" sheetId="4" r:id="rId9"/>
+    <sheet name="username" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>username</t>
   </si>
@@ -169,6 +174,126 @@
   </si>
   <si>
     <t xml:space="preserve">Saurabh Yadav </t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>Contactname</t>
+  </si>
+  <si>
+    <t>ContactEmailAdresss</t>
+  </si>
+  <si>
+    <t>ContactMobile</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Branchemail</t>
+  </si>
+  <si>
+    <t>branchname</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>anurag upadhyay</t>
+  </si>
+  <si>
+    <t>haryana</t>
+  </si>
+  <si>
+    <t>gurgaon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720 b jmd megapolis </t>
+  </si>
+  <si>
+    <t>qa@quadlabs.com</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Departmentname</t>
+  </si>
+  <si>
+    <t>DepartmentEmail</t>
+  </si>
+  <si>
+    <t>DepartmentPhone</t>
+  </si>
+  <si>
+    <t>DepartmentFax</t>
+  </si>
+  <si>
+    <t>TravelBudget</t>
+  </si>
+  <si>
+    <t>Noofstaff</t>
+  </si>
+  <si>
+    <t>Nooftraveller</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>finance@bmw.in</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Quality TestEngineer</t>
+  </si>
+  <si>
+    <t>Categorycode</t>
+  </si>
+  <si>
+    <t>Categoryname</t>
+  </si>
+  <si>
+    <t>Quad 586</t>
+  </si>
+  <si>
+    <t>qa engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Passportexpirationalert month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> visaexpirationalert month</t>
   </si>
 </sst>
 </file>
@@ -585,11 +710,68 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -640,6 +822,300 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>9874651222</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2165165141</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9879846551</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1">
+        <v>877545</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -959,104 +1435,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/Excel data.xlsx
+++ b/testdata/Excel data.xlsx
@@ -9,19 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="5145" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="3300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Branch" sheetId="6" r:id="rId3"/>
-    <sheet name="Department" sheetId="7" r:id="rId4"/>
-    <sheet name="Designation" sheetId="8" r:id="rId5"/>
-    <sheet name="EmployeeGrade" sheetId="9" r:id="rId6"/>
-    <sheet name="Passportvisaalert" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
-    <sheet name="Division" sheetId="4" r:id="rId9"/>
-    <sheet name="username" sheetId="5" r:id="rId10"/>
+    <sheet name="SearchData" sheetId="16" r:id="rId3"/>
+    <sheet name="Branch" sheetId="6" r:id="rId4"/>
+    <sheet name="Department" sheetId="7" r:id="rId5"/>
+    <sheet name="Designation" sheetId="8" r:id="rId6"/>
+    <sheet name="EmployeeGrade" sheetId="9" r:id="rId7"/>
+    <sheet name="Passportvisaalert" sheetId="10" r:id="rId8"/>
+    <sheet name="TravelCategory" sheetId="11" r:id="rId9"/>
+    <sheet name="Costcenter" sheetId="12" r:id="rId10"/>
+    <sheet name="outpolicyreason" sheetId="13" r:id="rId11"/>
+    <sheet name="Project" sheetId="14" r:id="rId12"/>
+    <sheet name="corporatecard" sheetId="15" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId14"/>
+    <sheet name="Division" sheetId="4" r:id="rId15"/>
+    <sheet name="username" sheetId="5" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
   <si>
     <t>username</t>
   </si>
@@ -294,6 +300,117 @@
   </si>
   <si>
     <t xml:space="preserve"> visaexpirationalert month</t>
+  </si>
+  <si>
+    <t>TravelCategory</t>
+  </si>
+  <si>
+    <t>Personal Travel</t>
+  </si>
+  <si>
+    <t>Costcentercode</t>
+  </si>
+  <si>
+    <t>Costcentername</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Reasonname</t>
+  </si>
+  <si>
+    <t>Reasoncode</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>anurag test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project code </t>
+  </si>
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Travel project</t>
+  </si>
+  <si>
+    <t>CardName</t>
+  </si>
+  <si>
+    <t>Nameoncard</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> expMonth</t>
+  </si>
+  <si>
+    <t>expyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cardlimit</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Bankcharge</t>
+  </si>
+  <si>
+    <t>Paymentperiod</t>
+  </si>
+  <si>
+    <t>Billaddress</t>
+  </si>
+  <si>
+    <t>720B jmd megapolis</t>
+  </si>
+  <si>
+    <t>Corporate BMW card</t>
+  </si>
+  <si>
+    <t>Anurag Upadhyay</t>
+  </si>
+  <si>
+    <t>rupee</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>BMW INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>1234567891234560</t>
+  </si>
+  <si>
+    <t>Travellertype</t>
+  </si>
+  <si>
+    <t>User_FirstName</t>
+  </si>
+  <si>
+    <t>triptype</t>
+  </si>
+  <si>
+    <t>depcity</t>
+  </si>
+  <si>
+    <t>Descity</t>
+  </si>
+  <si>
+    <t>oneway</t>
   </si>
 </sst>
 </file>
@@ -367,13 +484,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -712,6 +831,578 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="1">
+        <v>23456</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43491</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43491</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -822,6 +1513,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -937,7 +1682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1017,7 +1762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1046,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1081,11 +1826,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1115,369 +1860,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43490</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43491</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5">
-        <v>43490</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43490</v>
-      </c>
-      <c r="G4" s="5">
-        <v>43491</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43490</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Excel data.xlsx
+++ b/testdata/Excel data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9870" windowHeight="3300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="9765" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,17 @@
     <sheet name="Passportvisaalert" sheetId="10" r:id="rId8"/>
     <sheet name="TravelCategory" sheetId="11" r:id="rId9"/>
     <sheet name="Costcenter" sheetId="12" r:id="rId10"/>
-    <sheet name="outpolicyreason" sheetId="13" r:id="rId11"/>
-    <sheet name="Project" sheetId="14" r:id="rId12"/>
-    <sheet name="corporatecard" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId14"/>
-    <sheet name="Division" sheetId="4" r:id="rId15"/>
-    <sheet name="username" sheetId="5" r:id="rId16"/>
+    <sheet name="userdetail" sheetId="17" r:id="rId11"/>
+    <sheet name="Policydata" sheetId="20" r:id="rId12"/>
+    <sheet name="Policyon" sheetId="21" r:id="rId13"/>
+    <sheet name="Passport" sheetId="18" r:id="rId14"/>
+    <sheet name="Visadetail" sheetId="19" r:id="rId15"/>
+    <sheet name="outpolicyreason" sheetId="13" r:id="rId16"/>
+    <sheet name="Project" sheetId="14" r:id="rId17"/>
+    <sheet name="corporatecard" sheetId="15" r:id="rId18"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId19"/>
+    <sheet name="Division" sheetId="4" r:id="rId20"/>
+    <sheet name="username" sheetId="5" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="200">
   <si>
     <t>username</t>
   </si>
@@ -411,6 +416,234 @@
   </si>
   <si>
     <t>oneway</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>EmpFirstName</t>
+  </si>
+  <si>
+    <t>EmpLastName</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empcode </t>
+  </si>
+  <si>
+    <t>Emailid</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>phoneCountrycode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>MobCountrycode</t>
+  </si>
+  <si>
+    <t>Mobileno</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>departme</t>
+  </si>
+  <si>
+    <t>designe</t>
+  </si>
+  <si>
+    <t>emplgradecategory</t>
+  </si>
+  <si>
+    <t>cocenter</t>
+  </si>
+  <si>
+    <t>Proj</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>720 b jmd megapolis</t>
+  </si>
+  <si>
+    <t>8874531855</t>
+  </si>
+  <si>
+    <t>9205414742</t>
+  </si>
+  <si>
+    <t>testing purpose</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Assistant Manager PES</t>
+  </si>
+  <si>
+    <t>Grade2</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Nation</t>
+  </si>
+  <si>
+    <t>expday</t>
+  </si>
+  <si>
+    <t>expMonth</t>
+  </si>
+  <si>
+    <t>expDate</t>
+  </si>
+  <si>
+    <t>expYear</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>IssuingCountry</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>VisaType</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> issueYear</t>
+  </si>
+  <si>
+    <t>issueMonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> issueDate</t>
+  </si>
+  <si>
+    <t>VisaexpYear</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>TV-4343-2</t>
+  </si>
+  <si>
+    <t>E67457642</t>
+  </si>
+  <si>
+    <t>santosh</t>
+  </si>
+  <si>
+    <t>amrit.singh@quadlabs.com</t>
+  </si>
+  <si>
+    <t>AUS678461287</t>
+  </si>
+  <si>
+    <t>Travelpurpose</t>
+  </si>
+  <si>
+    <t>PolicyTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prod </t>
+  </si>
+  <si>
+    <t>Ruleapply</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Policycriteria</t>
+  </si>
+  <si>
+    <t>Airline</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>PriceTo</t>
+  </si>
+  <si>
+    <t>PriceFrom</t>
+  </si>
+  <si>
+    <t>domestic :salespurpose</t>
+  </si>
+  <si>
+    <t>Businesstrip</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>Customer Cost</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Internationa:airline criteria</t>
+  </si>
+  <si>
+    <t>Airline Criteria</t>
+  </si>
+  <si>
+    <t>JetAirways</t>
   </si>
 </sst>
 </file>
@@ -484,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -493,6 +726,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -865,6 +1099,512 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="14" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>71234</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1">
+        <v>110092</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1992</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="6">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -899,7 +1639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -935,7 +1675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1030,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -1347,114 +2087,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1512,11 +2144,119 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/testdata/Excel data.xlsx
+++ b/testdata/Excel data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="9765" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="9765" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="209">
   <si>
     <t>username</t>
   </si>
@@ -415,9 +415,6 @@
     <t>Descity</t>
   </si>
   <si>
-    <t>oneway</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -628,9 +625,6 @@
     <t>Flight</t>
   </si>
   <si>
-    <t>Business Travel</t>
-  </si>
-  <si>
     <t>Customer Cost</t>
   </si>
   <si>
@@ -644,6 +638,39 @@
   </si>
   <si>
     <t>JetAirways</t>
+  </si>
+  <si>
+    <t>Delhi,India - Indira Gandhi Int'l Airport (DEL)</t>
+  </si>
+  <si>
+    <t>Departureairport</t>
+  </si>
+  <si>
+    <t>Destination city airport</t>
+  </si>
+  <si>
+    <t>Tripdate</t>
+  </si>
+  <si>
+    <t>26-7-2019</t>
+  </si>
+  <si>
+    <t>Returndate</t>
+  </si>
+  <si>
+    <t>28-7-2019</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>kanchan.salotra@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Dubai,United Arab Emirates - Dubai (DXB)</t>
+  </si>
+  <si>
+    <t>roundtrip</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1038,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1095,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection sqref="A1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,28 +1151,28 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>57</v>
@@ -1160,34 +1187,34 @@
         <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1195,28 +1222,28 @@
         <v>71234</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
@@ -1228,31 +1255,31 @@
         <v>110092</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>99</v>
@@ -1271,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,66 +1319,66 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J2" s="1">
         <v>100</v>
@@ -1362,37 +1389,37 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1433,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1462,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,48 +1474,48 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -1497,13 +1524,13 @@
         <v>1992</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I2" s="1">
         <v>10</v>
@@ -1526,7 +1553,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,48 +1568,48 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1">
         <v>2018</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1">
         <v>15</v>
@@ -1591,7 +1618,7 @@
         <v>2024</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I2" s="6">
         <v>21</v>
@@ -1608,7 +1635,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1671,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1707,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2176,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2227,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,19 +2281,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>118</v>
       </c>
@@ -2282,8 +2316,23 @@
       <c r="E1" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -2291,13 +2340,28 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2375,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,7 +2491,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,7 +2571,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,7 +2600,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,7 +2634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2605,7 +2671,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testdata/Excel data.xlsx
+++ b/testdata/Excel data.xlsx
@@ -9,30 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="9765" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="9765" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="SearchData" sheetId="16" r:id="rId3"/>
-    <sheet name="Branch" sheetId="6" r:id="rId4"/>
-    <sheet name="Department" sheetId="7" r:id="rId5"/>
-    <sheet name="Designation" sheetId="8" r:id="rId6"/>
-    <sheet name="EmployeeGrade" sheetId="9" r:id="rId7"/>
-    <sheet name="Passportvisaalert" sheetId="10" r:id="rId8"/>
-    <sheet name="TravelCategory" sheetId="11" r:id="rId9"/>
-    <sheet name="Costcenter" sheetId="12" r:id="rId10"/>
-    <sheet name="userdetail" sheetId="17" r:id="rId11"/>
-    <sheet name="Policydata" sheetId="20" r:id="rId12"/>
-    <sheet name="Policyon" sheetId="21" r:id="rId13"/>
-    <sheet name="Passport" sheetId="18" r:id="rId14"/>
-    <sheet name="Visadetail" sheetId="19" r:id="rId15"/>
-    <sheet name="outpolicyreason" sheetId="13" r:id="rId16"/>
-    <sheet name="Project" sheetId="14" r:id="rId17"/>
-    <sheet name="corporatecard" sheetId="15" r:id="rId18"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId19"/>
-    <sheet name="Division" sheetId="4" r:id="rId20"/>
-    <sheet name="username" sheetId="5" r:id="rId21"/>
+    <sheet name="SearchResultPage" sheetId="22" r:id="rId4"/>
+    <sheet name="Airline" sheetId="26" r:id="rId5"/>
+    <sheet name="Modifysearch" sheetId="23" r:id="rId6"/>
+    <sheet name="ModSerchloc" sheetId="24" r:id="rId7"/>
+    <sheet name="ModTripdate" sheetId="25" r:id="rId8"/>
+    <sheet name="Branch" sheetId="6" r:id="rId9"/>
+    <sheet name="Department" sheetId="7" r:id="rId10"/>
+    <sheet name="Designation" sheetId="8" r:id="rId11"/>
+    <sheet name="EmployeeGrade" sheetId="9" r:id="rId12"/>
+    <sheet name="Passportvisaalert" sheetId="10" r:id="rId13"/>
+    <sheet name="TravelCategory" sheetId="11" r:id="rId14"/>
+    <sheet name="Costcenter" sheetId="12" r:id="rId15"/>
+    <sheet name="userdetail" sheetId="17" r:id="rId16"/>
+    <sheet name="Policydata" sheetId="20" r:id="rId17"/>
+    <sheet name="Policyon" sheetId="21" r:id="rId18"/>
+    <sheet name="Passport" sheetId="18" r:id="rId19"/>
+    <sheet name="Visadetail" sheetId="19" r:id="rId20"/>
+    <sheet name="outpolicyreason" sheetId="13" r:id="rId21"/>
+    <sheet name="Project" sheetId="14" r:id="rId22"/>
+    <sheet name="corporatecard" sheetId="15" r:id="rId23"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId24"/>
+    <sheet name="Division" sheetId="4" r:id="rId25"/>
+    <sheet name="username" sheetId="5" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="226">
   <si>
     <t>username</t>
   </si>
@@ -145,9 +150,6 @@
     <t>usa</t>
   </si>
   <si>
-    <t>Sapna.chopra@quadlabs.com</t>
-  </si>
-  <si>
     <t>anurag.upadhyay@quadlabs.com</t>
   </si>
   <si>
@@ -574,12 +576,6 @@
     <t>E67457642</t>
   </si>
   <si>
-    <t>santosh</t>
-  </si>
-  <si>
-    <t>amrit.singh@quadlabs.com</t>
-  </si>
-  <si>
     <t>AUS678461287</t>
   </si>
   <si>
@@ -670,7 +666,67 @@
     <t>Dubai,United Arab Emirates - Dubai (DXB)</t>
   </si>
   <si>
-    <t>roundtrip</t>
+    <t>FareType</t>
+  </si>
+  <si>
+    <t>oneway</t>
+  </si>
+  <si>
+    <t>Descityairport</t>
+  </si>
+  <si>
+    <t>depcityairport</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>Mumbai,India - Chhatrapati Shivaji Maharaj International Airport  (BOM)</t>
+  </si>
+  <si>
+    <t>26-6-2019</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>PolicyType</t>
+  </si>
+  <si>
+    <t>In Policy</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Triptype</t>
+  </si>
+  <si>
+    <t>tripdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Airline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PolicyType</t>
+  </si>
+  <si>
+    <t>One-Way</t>
+  </si>
+  <si>
+    <t>25-4-2019</t>
+  </si>
+  <si>
+    <t>Anurag</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>TestData@quadlabs.com</t>
   </si>
 </sst>
 </file>
@@ -1092,6 +1148,215 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1105,10 +1370,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1124,12 +1389,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection sqref="A1:V2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,6 +1403,8 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
@@ -1151,70 +1418,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1222,28 +1489,28 @@
         <v>71234</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
@@ -1255,34 +1522,34 @@
         <v>110092</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1319,66 +1586,66 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J2" s="1">
         <v>100</v>
@@ -1389,37 +1656,37 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1443,12 +1710,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1474,48 +1741,48 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -1524,13 +1791,13 @@
         <v>1992</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I2" s="1">
         <v>10</v>
@@ -1539,577 +1806,8 @@
         <v>2023</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="1">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2024</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I2" s="6">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G2" s="1">
-        <v>23456</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43490</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43491</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5">
-        <v>43490</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43490</v>
-      </c>
-      <c r="G4" s="5">
-        <v>43491</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43490</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2135,16 +1833,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2152,13 +1850,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2173,6 +1871,575 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="6">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="1">
+        <v>23456</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43491</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43491</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43490</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2183,7 +2450,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2222,12 +2489,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,11 +2504,11 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2265,15 +2532,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2283,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,34 +2563,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2340,7 +2601,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -2349,19 +2610,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2371,6 +2632,220 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -2392,46 +2867,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2443,37 +2918,37 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1">
         <v>9879846551</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1">
         <v>877545</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2484,213 +2959,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>500000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>